--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176869.7549874709</v>
+        <v>174301.3315485254</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854491</v>
+        <v>10116307.12854492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>244.0094223496731</v>
       </c>
       <c r="D11" t="n">
         <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>211.4926909383611</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
         <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369542</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929326</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315732</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D13" t="n">
         <v>121.694256693732</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984508</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345478</v>
+        <v>64.86873959714741</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516888</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811325</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121106</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>49.95649129828161</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477814</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>294.9240467937275</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844557</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369544</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456545</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929326</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>244.3697930137043</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9107638574569</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
         <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
         <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984508</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345478</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>85.49642571831663</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.5906080891404</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811325</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121106</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204076</v>
+        <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D17" t="n">
-        <v>280.78668867761</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
-        <v>307.9765679373777</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103805</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510288</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965472</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8559055270619</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
-        <v>275.34461577434</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X17" t="n">
-        <v>295.834747735396</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129806</v>
+        <v>260.0911324001424</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388643</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555486</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513939</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5376097034962</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985828</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595525</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124781</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676514</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697437</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8726723883689</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6525963330962</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3154852625399</v>
+        <v>274.7322952551654</v>
       </c>
       <c r="V19" t="n">
-        <v>178.241290380755</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0434553861439</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8133024459642</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090218</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8374887204076</v>
+        <v>308.8374887204077</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D20" t="n">
-        <v>168.4609581314076</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291888</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986384</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0253727103805</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510288</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965472</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8559055270619</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
-        <v>275.34461577434</v>
+        <v>72.32909098043865</v>
       </c>
       <c r="X20" t="n">
-        <v>295.834747735396</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388643</v>
+        <v>168.3524372314895</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555486</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513939</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5376097034962</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985828</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595525</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124781</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676514</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697437</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8726723883689</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6525963330962</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3154852625399</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V22" t="n">
-        <v>178.241290380755</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W22" t="n">
-        <v>212.626645393518</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>214.23011243859</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090218</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8374887204076</v>
+        <v>308.8374887204077</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D23" t="n">
-        <v>280.78668867761</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291888</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9796927986384</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0253727103805</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510288</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0216171965472</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U23" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8559055270619</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W23" t="n">
-        <v>275.34461577434</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X23" t="n">
-        <v>295.834747735396</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9356272388643</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555486</v>
+        <v>155.7672781481799</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513939</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5376097034962</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9415050724841</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595525</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124781</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676514</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697437</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8726723883689</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330962</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3154852625399</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V25" t="n">
-        <v>178.241290380755</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W25" t="n">
-        <v>212.626645393518</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459642</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090218</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128499</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124555</v>
@@ -3980,13 +3980,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.969977654009</v>
+        <v>1774.325995361337</v>
       </c>
       <c r="C11" t="n">
-        <v>1280.200608516103</v>
+        <v>1527.851831371768</v>
       </c>
       <c r="D11" t="n">
-        <v>949.1280577118579</v>
+        <v>1196.779280567522</v>
       </c>
       <c r="E11" t="n">
-        <v>735.4990769660387</v>
+        <v>838.1841757717838</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7063199789366</v>
+        <v>454.3914187846816</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789366</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020925</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810572</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938773</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508300938773</v>
+        <v>3146.821221795899</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170972015115</v>
+        <v>3146.821221795899</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.170972015115</v>
+        <v>2842.951482254834</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.595464547506</v>
+        <v>2842.951482254834</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.322854088932</v>
+        <v>2496.678871796259</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.376669915626</v>
+        <v>2133.732687622953</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>568.666135539831</v>
+        <v>635.4234612335151</v>
       </c>
       <c r="C13" t="n">
-        <v>568.666135539831</v>
+        <v>493.6804261081136</v>
       </c>
       <c r="D13" t="n">
-        <v>445.7426439300007</v>
+        <v>370.7569344982832</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7426439300007</v>
+        <v>370.7569344982832</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0458442345958</v>
+        <v>251.0601348028783</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5361554118202</v>
+        <v>185.5361554118203</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403546</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601983</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
         <v>1451.007173388083</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567743</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.807067939774</v>
+        <v>1781.44437737974</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.897348867923</v>
+        <v>1519.534658307889</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.406008464541</v>
+        <v>1292.043317904507</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1819862300865</v>
+        <v>1029.819295670052</v>
       </c>
       <c r="X13" t="n">
-        <v>916.7208839085899</v>
+        <v>829.0228925745398</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.1214525675653</v>
+        <v>635.4234612335151</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.046422286248</v>
+        <v>1500.632194480598</v>
       </c>
       <c r="C14" t="n">
-        <v>1339.277053148342</v>
+        <v>1158.862825342691</v>
       </c>
       <c r="D14" t="n">
-        <v>1008.204502344097</v>
+        <v>827.7902745384463</v>
       </c>
       <c r="E14" t="n">
-        <v>649.6093975483582</v>
+        <v>469.1951697427075</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7063199789366</v>
+        <v>469.1951697427075</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789366</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020925</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938771</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508300938771</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.170972015113</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.301232474048</v>
+        <v>2795.398753144446</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.725725006439</v>
+        <v>2469.823245676837</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.453114547865</v>
+        <v>2222.98507091552</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.453114547865</v>
+        <v>1860.038886742214</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.5416118337503</v>
+        <v>712.1050774654838</v>
       </c>
       <c r="C16" t="n">
-        <v>533.7985767083487</v>
+        <v>570.3620423400822</v>
       </c>
       <c r="D16" t="n">
-        <v>533.7985767083487</v>
+        <v>447.4385507302518</v>
       </c>
       <c r="E16" t="n">
-        <v>413.0786309284611</v>
+        <v>326.7186049503641</v>
       </c>
       <c r="F16" t="n">
-        <v>293.3818312330563</v>
+        <v>207.0218052549591</v>
       </c>
       <c r="G16" t="n">
-        <v>152.8721424102807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,16 +5434,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
         <v>1451.007173388083</v>
@@ -5464,22 +5464,22 @@
         <v>1976.017845007709</v>
       </c>
       <c r="T16" t="n">
-        <v>1976.017845007709</v>
+        <v>1811.784907543931</v>
       </c>
       <c r="U16" t="n">
-        <v>1714.108125935858</v>
+        <v>1549.87518847208</v>
       </c>
       <c r="V16" t="n">
-        <v>1486.616785532476</v>
+        <v>1322.383848068698</v>
       </c>
       <c r="W16" t="n">
-        <v>1224.392763298021</v>
+        <v>1060.159825834243</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.596360202509</v>
+        <v>1060.159825834243</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.9969288614845</v>
+        <v>866.5603944932182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.912701884256</v>
+        <v>1571.69093755379</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.592965694422</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9700478382497</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>940.9700478382497</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772621</v>
+        <v>629.8826054772624</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728375</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5528,16 +5528,16 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
         <v>3289.957933886844</v>
@@ -5549,7 +5549,7 @@
         <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453068</v>
+        <v>2723.315164453069</v>
       </c>
       <c r="W17" t="n">
         <v>2445.189289933533</v>
@@ -5558,7 +5558,7 @@
         <v>2146.366312423032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869761197798</v>
+        <v>1883.647996867333</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877561</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C19" t="n">
-        <v>474.820813010428</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D19" t="n">
-        <v>399.346954348671</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168566</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695251</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948228</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325931</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174004</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370331</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.39085709419</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078069</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603684</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674171</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.912701884254</v>
+        <v>1855.313855409962</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592965694421</v>
+        <v>1560.994119220129</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.430381723302</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2849098756369</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F20" t="n">
-        <v>406.9417858366081</v>
+        <v>629.8826054772625</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>289.4529360728375</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886843</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021644</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.735271046059</v>
+        <v>3111.070237911259</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.315164453067</v>
+        <v>2854.650131318268</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.189289933532</v>
+        <v>2781.590443459238</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.36631242303</v>
+        <v>2482.767465948737</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869761197797</v>
+        <v>2167.270914723505</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,13 +5835,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877561</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C22" t="n">
-        <v>474.820813010428</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D22" t="n">
-        <v>399.346954348671</v>
+        <v>399.3469543486714</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168566</v>
+        <v>326.076641516857</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695251</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948228</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325929</v>
+        <v>89.19501286325939</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5950,10 +5950,10 @@
         <v>1038.663750628641</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2696976603684</v>
+        <v>885.3169804812024</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674171</v>
+        <v>739.167182088251</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800813</v>
+        <v>973.0910591800819</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410525</v>
+        <v>636.7479351410529</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366274</v>
+        <v>296.3182657366275</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597331</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597331</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549987</v>
@@ -5996,43 +5996,43 @@
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642068665178</v>
+        <v>1917.043222190886</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.63019849636</v>
+        <v>2463.822039249668</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.602669375697</v>
+        <v>2966.794510129005</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.377035732875</v>
+        <v>3361.568876486182</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241863</v>
+        <v>3609.855238241865</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798665</v>
+        <v>3668.872304798667</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076339</v>
+        <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.88945021114</v>
+        <v>3501.889450211142</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235556</v>
+        <v>3323.001754235557</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642564</v>
+        <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123028</v>
+        <v>2788.455773123029</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612527</v>
+        <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387294</v>
+        <v>2174.136244387295</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4091841448986</v>
+        <v>948.4091841448985</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9561548637716</v>
+        <v>773.9561548637715</v>
       </c>
       <c r="D24" t="n">
         <v>625.0217452025204</v>
@@ -6054,31 +6054,31 @@
         <v>465.7842901970648</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2497322239498</v>
+        <v>319.2497322239499</v>
       </c>
       <c r="G24" t="n">
         <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443539</v>
+        <v>92.38473769443542</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597331</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865906</v>
+        <v>167.0547155865904</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669377</v>
+        <v>405.3189145669375</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796029</v>
+        <v>772.0170748796028</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656373</v>
+        <v>1692.816443656374</v>
       </c>
       <c r="O24" t="n">
         <v>2103.777723074429</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723803</v>
+        <v>639.0268276723799</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950521</v>
+        <v>481.6861426742183</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2595668332951</v>
+        <v>406.2122840124613</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9892540014808</v>
+        <v>332.9419711806469</v>
       </c>
       <c r="F25" t="n">
-        <v>260.694804433315</v>
+        <v>260.6948044333152</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586127</v>
+        <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704922</v>
+        <v>96.06034252704933</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597331</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917851</v>
+        <v>322.4872614917852</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
@@ -6187,10 +6187,10 @@
         <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449925</v>
+        <v>892.1823101449924</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520412</v>
+        <v>746.0325117520409</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.20875468258</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.181225561917</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3477.955591919094</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6315,16 +6315,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643399</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302707</v>
+        <v>131.022961130271</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1635.769886219269</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M29" t="n">
-        <v>2169.301790891193</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
         <v>3684.98316084772</v>
@@ -6488,10 +6488,10 @@
         <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
@@ -6558,7 +6558,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6646,7 +6646,7 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6677,16 +6677,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1706.925601880499</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
@@ -6728,22 +6728,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6923,10 +6923,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6935,31 +6935,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>625.3777437664569</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1076.411957014865</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1609.94386168679</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2156.722678745572</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3036.687329075027</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -7014,10 +7014,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803195</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,25 +7093,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7129,16 +7129,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>390.9762157434857</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878785</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127194</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799118</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.0444828579</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7257,19 +7257,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.011402386887</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058811</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973142</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467778</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7649,49 +7649,49 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2095.32492147337</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2642.103738532152</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,7 +7804,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764229</v>
+        <v>212.1614152764225</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188436</v>
+        <v>225.9304893188431</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603977</v>
+        <v>219.4018707603972</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030232</v>
+        <v>218.2916099030226</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661483</v>
+        <v>219.5965380661478</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111175</v>
+        <v>222.2700605111171</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357293</v>
+        <v>123.6869003357291</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344805</v>
+        <v>132.4563458344802</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915376</v>
+        <v>131.3134574915373</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437696</v>
+        <v>133.6842191437692</v>
       </c>
       <c r="N6" t="n">
-        <v>122.668255851113</v>
+        <v>122.6682558511125</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891795</v>
+        <v>134.6617264891791</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357706</v>
+        <v>127.6062572357703</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369104</v>
+        <v>135.7248343369102</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970308</v>
+        <v>130.7280129970306</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216059</v>
+        <v>134.5431653216057</v>
       </c>
       <c r="N7" t="n">
-        <v>123.407134714526</v>
+        <v>123.4071347145258</v>
       </c>
       <c r="O7" t="n">
-        <v>134.50473456638</v>
+        <v>134.5047345663798</v>
       </c>
       <c r="P7" t="n">
-        <v>134.346553129917</v>
+        <v>134.3465531299169</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.7991449754622</v>
       </c>
       <c r="N23" t="n">
-        <v>127.4841543155554</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1187564935616</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>12.68816924374562</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>71.87446026386874</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>334.4868774152288</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>21.74982042514745</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>122.1718867553244</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>287.001785447392</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>287.0017854473913</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>18.79169145623223</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>94.34225309685411</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>143.5164628094203</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456545</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>74.23585233740049</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535768</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.010936345567</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>148.8319477662752</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>85.03078262350351</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T14" t="n">
         <v>176.9967538151398</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>98.44009134028443</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.33737287152383</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535771</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556695</v>
+        <v>62.01093634556701</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516888</v>
+        <v>30.03712486254843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291888</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.00312486126072</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>52.25045331283833</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>112.3257305462024</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442475</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>203.0155247939015</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939925.0135125673</v>
+        <v>939925.0135125672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939925.0135125673</v>
+        <v>939925.0135125668</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389156.2608905932</v>
+        <v>389156.2608905933</v>
       </c>
       <c r="C2" t="n">
-        <v>389158.6175361829</v>
+        <v>389158.6175361828</v>
       </c>
       <c r="D2" t="n">
         <v>389161.5841222226</v>
       </c>
       <c r="E2" t="n">
-        <v>346532.3978700988</v>
+        <v>346532.3978700986</v>
       </c>
       <c r="F2" t="n">
-        <v>346532.3978700988</v>
+        <v>346532.3978700987</v>
       </c>
       <c r="G2" t="n">
         <v>377402.7063468753</v>
       </c>
       <c r="H2" t="n">
-        <v>377402.7063468752</v>
+        <v>377402.7063468754</v>
       </c>
       <c r="I2" t="n">
         <v>389994.8406855342</v>
@@ -26338,22 +26338,22 @@
         <v>389994.8406855346</v>
       </c>
       <c r="K2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="O2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="P2" t="n">
         <v>389994.8406855347</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855351</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945472</v>
+        <v>14118.19859945538</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072169</v>
+        <v>16714.64353072107</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905851</v>
+        <v>22820.44161905854</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728121</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200266</v>
+        <v>426739.1543200264</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210911</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210911</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521042</v>
+        <v>74613.22686521037</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521041</v>
+        <v>74613.22686521037</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913914</v>
+        <v>85473.00365913915</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646602</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646599</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646598</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646599</v>
-      </c>
       <c r="M4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="N4" t="n">
         <v>80755.36360646597</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646601</v>
       </c>
       <c r="O4" t="n">
         <v>80755.36360646598</v>
@@ -26470,25 +26470,25 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112995</v>
+        <v>33965.59259112996</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657605</v>
+        <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="G5" t="n">
+        <v>80518.7330569645</v>
+      </c>
+      <c r="H5" t="n">
         <v>80518.73305696448</v>
       </c>
-      <c r="H5" t="n">
-        <v>80518.73305696447</v>
-      </c>
       <c r="I5" t="n">
-        <v>85736.38360144482</v>
+        <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="N5" t="n">
         <v>89377.9416748061</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75369.84855208269</v>
+        <v>-75374.26212995063</v>
       </c>
       <c r="C6" t="n">
-        <v>-85664.32797442842</v>
+        <v>-85668.72914889919</v>
       </c>
       <c r="D6" t="n">
-        <v>-83539.11413204909</v>
+        <v>-83543.49969290792</v>
       </c>
       <c r="E6" t="n">
-        <v>-884791.4910005066</v>
+        <v>-885020.2406995351</v>
       </c>
       <c r="F6" t="n">
-        <v>232377.3504714139</v>
+        <v>232148.600772385</v>
       </c>
       <c r="G6" t="n">
-        <v>184690.6371298264</v>
+        <v>184624.3627385703</v>
       </c>
       <c r="H6" t="n">
-        <v>222270.7464247003</v>
+        <v>222204.4720334446</v>
       </c>
       <c r="I6" t="n">
-        <v>195965.0118058917</v>
+        <v>195965.0118058916</v>
       </c>
       <c r="J6" t="n">
-        <v>194451.0926769813</v>
+        <v>194451.0926769814</v>
       </c>
       <c r="K6" t="n">
-        <v>219861.5354042625</v>
+        <v>219861.5354042627</v>
       </c>
       <c r="L6" t="n">
         <v>182281.4261093885</v>
       </c>
       <c r="M6" t="n">
-        <v>12672.96711218974</v>
+        <v>12672.96711218962</v>
       </c>
       <c r="N6" t="n">
-        <v>219861.5354042625</v>
+        <v>219861.5354042627</v>
       </c>
       <c r="O6" t="n">
+        <v>219861.5354042627</v>
+      </c>
+      <c r="P6" t="n">
         <v>219861.5354042626</v>
-      </c>
-      <c r="P6" t="n">
-        <v>219861.535404263</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5042472995389</v>
+        <v>15.50424729953963</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996664</v>
+        <v>917.2180761996668</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5042472995389</v>
+        <v>15.50424729953963</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958643</v>
+        <v>19.5170134195857</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737407</v>
+        <v>85.81662079737418</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894805</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>338.8364790096107</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713487</v>
+        <v>208.0729649713486</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851754</v>
+        <v>6.659224593851506</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783674</v>
+        <v>3.259908116783357</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886686</v>
+        <v>145.9538669886684</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.5997558763428</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759757</v>
+        <v>222.8230059759756</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234545</v>
+        <v>88.24844095234539</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573489</v>
+        <v>98.08728580573481</v>
       </c>
       <c r="S6" t="n">
-        <v>171.0637325442761</v>
+        <v>171.063732544276</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27795,10 +27795,10 @@
         <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997582</v>
+        <v>91.38251566997573</v>
       </c>
       <c r="K7" t="n">
-        <v>19.0212249326352</v>
+        <v>19.02122493263504</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946401</v>
+        <v>83.8209019094639</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059643</v>
+        <v>176.0362765059642</v>
       </c>
       <c r="S7" t="n">
         <v>223.5293580029851</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9212163244804</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448039</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307297</v>
+        <v>11.47954295044752</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W19" t="n">
-        <v>11.47954295044713</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307297</v>
+        <v>11.47954295044784</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X22" t="n">
-        <v>11.47954295044718</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307297</v>
+        <v>11.47954295044789</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F25" t="n">
-        <v>11.4795429504471</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307297</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995533</v>
+        <v>0.06232863235995826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563927</v>
+        <v>0.6383231061564226</v>
       </c>
       <c r="I5" t="n">
-        <v>2.40292459905718</v>
+        <v>2.402924599057293</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760764</v>
+        <v>5.290064760761012</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557674</v>
+        <v>7.928435768558047</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143659</v>
+        <v>9.835925651144121</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687501</v>
+        <v>10.94436246687553</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356774</v>
+        <v>11.12145369356826</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553843</v>
+        <v>10.50167335553892</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152034</v>
+        <v>8.962935244152455</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761131</v>
+        <v>6.730791097761447</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481047</v>
+        <v>3.915250952481231</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902483</v>
+        <v>1.42031370990255</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557046</v>
+        <v>0.2728435881557174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796426</v>
+        <v>0.00498629058879666</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240443</v>
+        <v>0.03334875834240599</v>
       </c>
       <c r="H6" t="n">
-        <v>0.322078797675327</v>
+        <v>0.3220787976753421</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069626</v>
+        <v>1.14819189906968</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937429</v>
+        <v>3.150726330937577</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878526</v>
+        <v>5.385093139878778</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336541</v>
+        <v>7.240922288336881</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248699</v>
+        <v>8.449814778249095</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220351</v>
+        <v>8.67345623222076</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264969</v>
+        <v>7.934517955265341</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559667</v>
+        <v>6.368150178559966</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111134</v>
+        <v>4.256939749111334</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908234</v>
+        <v>2.070548346908331</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617661</v>
+        <v>0.6194385595617952</v>
       </c>
       <c r="T6" t="n">
-        <v>0.134418898757323</v>
+        <v>0.1344188987573294</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368713</v>
+        <v>0.002193997259368816</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687342</v>
+        <v>0.02795847873687474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696566</v>
+        <v>0.2485762927696683</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143392</v>
+        <v>0.8407877060143787</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696951</v>
+        <v>1.976664446697044</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247657</v>
+        <v>3.24826689324781</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207528</v>
+        <v>4.156663284207723</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999167</v>
+        <v>4.382618625999373</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707188</v>
+        <v>4.278409750707389</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462801</v>
+        <v>3.951803885462987</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230581</v>
+        <v>3.38145091923074</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230374</v>
+        <v>2.341141342230484</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205236</v>
+        <v>1.257114871205295</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871485</v>
+        <v>0.4872400339871714</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030046</v>
+        <v>0.1194589546030102</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102189</v>
+        <v>0.00152500793110226</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970257</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33278,10 +33278,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33734,13 +33734,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754662</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
         <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7781624920205</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3154548623741</v>
+        <v>105.315454862374</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754662</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
         <v>374.5545957179642</v>
@@ -35817,13 +35817,13 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P16" t="n">
         <v>261.8782874695908</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3154548623741</v>
+        <v>105.315454862374</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36364,10 +36364,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7202608056888</v>
       </c>
       <c r="N23" t="n">
-        <v>679.7859897284667</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525813</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36610,10 +36610,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q26" t="n">
-        <v>459.913061297281</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>468.2782836360776</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>624.17629567678</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36926,10 +36926,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>790.0769918075607</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,10 +37084,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>358.9411069805478</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>312.9588877240369</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776185</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>742.5918998397233</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -38017,13 +38017,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>557.7128072864588</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38032,13 +38032,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
